--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.1534173695867</v>
+        <v>23.40397433333333</v>
       </c>
       <c r="H2">
-        <v>17.1534173695867</v>
+        <v>70.211923</v>
       </c>
       <c r="I2">
-        <v>0.4834659566266813</v>
+        <v>0.5512176233382776</v>
       </c>
       <c r="J2">
-        <v>0.4834659566266813</v>
+        <v>0.5512176233382777</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.4707290571619</v>
+        <v>18.444833</v>
       </c>
       <c r="N2">
-        <v>17.4707290571619</v>
+        <v>55.33449900000001</v>
       </c>
       <c r="O2">
-        <v>0.5286655744491404</v>
+        <v>0.529296397589589</v>
       </c>
       <c r="P2">
-        <v>0.5286655744491404</v>
+        <v>0.5292963975895891</v>
       </c>
       <c r="Q2">
-        <v>299.682707268464</v>
+        <v>431.6823981146197</v>
       </c>
       <c r="R2">
-        <v>299.682707268464</v>
+        <v>3885.141583031577</v>
       </c>
       <c r="S2">
-        <v>0.2555918076866477</v>
+        <v>0.2917575023208453</v>
       </c>
       <c r="T2">
-        <v>0.2555918076866477</v>
+        <v>0.2917575023208454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.1534173695867</v>
+        <v>23.40397433333333</v>
       </c>
       <c r="H3">
-        <v>17.1534173695867</v>
+        <v>70.211923</v>
       </c>
       <c r="I3">
-        <v>0.4834659566266813</v>
+        <v>0.5512176233382776</v>
       </c>
       <c r="J3">
-        <v>0.4834659566266813</v>
+        <v>0.5512176233382777</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.00031381036327</v>
+        <v>8.028767999999999</v>
       </c>
       <c r="N3">
-        <v>8.00031381036327</v>
+        <v>24.086304</v>
       </c>
       <c r="O3">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="P3">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="Q3">
-        <v>137.2327218768297</v>
+        <v>187.905080200288</v>
       </c>
       <c r="R3">
-        <v>137.2327218768297</v>
+        <v>1691.145721802592</v>
       </c>
       <c r="S3">
-        <v>0.117042320452732</v>
+        <v>0.1269978046639689</v>
       </c>
       <c r="T3">
-        <v>0.117042320452732</v>
+        <v>0.126997804663969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.1534173695867</v>
+        <v>23.40397433333333</v>
       </c>
       <c r="H4">
-        <v>17.1534173695867</v>
+        <v>70.211923</v>
       </c>
       <c r="I4">
-        <v>0.4834659566266813</v>
+        <v>0.5512176233382776</v>
       </c>
       <c r="J4">
-        <v>0.4834659566266813</v>
+        <v>0.5512176233382777</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.5758016813488</v>
+        <v>8.374233</v>
       </c>
       <c r="N4">
-        <v>7.5758016813488</v>
+        <v>25.122699</v>
       </c>
       <c r="O4">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194523</v>
       </c>
       <c r="P4">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194524</v>
       </c>
       <c r="Q4">
-        <v>129.9508881493926</v>
+        <v>195.990334193353</v>
       </c>
       <c r="R4">
-        <v>129.9508881493926</v>
+        <v>1763.913007740177</v>
       </c>
       <c r="S4">
-        <v>0.1108318284873016</v>
+        <v>0.1324623163534633</v>
       </c>
       <c r="T4">
-        <v>0.1108318284873016</v>
+        <v>0.1324623163534633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.0264504040487</v>
+        <v>10.21452833333333</v>
       </c>
       <c r="H5">
-        <v>10.0264504040487</v>
+        <v>30.643585</v>
       </c>
       <c r="I5">
-        <v>0.2825936856616098</v>
+        <v>0.240575722363629</v>
       </c>
       <c r="J5">
-        <v>0.2825936856616098</v>
+        <v>0.240575722363629</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.4707290571619</v>
+        <v>18.444833</v>
       </c>
       <c r="N5">
-        <v>17.4707290571619</v>
+        <v>55.33449900000001</v>
       </c>
       <c r="O5">
-        <v>0.5286655744491404</v>
+        <v>0.529296397589589</v>
       </c>
       <c r="P5">
-        <v>0.5286655744491404</v>
+        <v>0.5292963975895891</v>
       </c>
       <c r="Q5">
-        <v>175.1693984142063</v>
+        <v>188.4052692821017</v>
       </c>
       <c r="R5">
-        <v>175.1693984142063</v>
+        <v>1695.647423538915</v>
       </c>
       <c r="S5">
-        <v>0.1493975531659948</v>
+        <v>0.1273358631945819</v>
       </c>
       <c r="T5">
-        <v>0.1493975531659948</v>
+        <v>0.127335863194582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.0264504040487</v>
+        <v>10.21452833333333</v>
       </c>
       <c r="H6">
-        <v>10.0264504040487</v>
+        <v>30.643585</v>
       </c>
       <c r="I6">
-        <v>0.2825936856616098</v>
+        <v>0.240575722363629</v>
       </c>
       <c r="J6">
-        <v>0.2825936856616098</v>
+        <v>0.240575722363629</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.00031381036327</v>
+        <v>8.028767999999999</v>
       </c>
       <c r="N6">
-        <v>8.00031381036327</v>
+        <v>24.086304</v>
       </c>
       <c r="O6">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="P6">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="Q6">
-        <v>80.21474963643321</v>
+        <v>82.01007821776</v>
       </c>
       <c r="R6">
-        <v>80.21474963643321</v>
+        <v>738.09070395984</v>
       </c>
       <c r="S6">
-        <v>0.06841313284166699</v>
+        <v>0.05542745242903728</v>
       </c>
       <c r="T6">
-        <v>0.06841313284166699</v>
+        <v>0.0554274524290373</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.0264504040487</v>
+        <v>10.21452833333333</v>
       </c>
       <c r="H7">
-        <v>10.0264504040487</v>
+        <v>30.643585</v>
       </c>
       <c r="I7">
-        <v>0.2825936856616098</v>
+        <v>0.240575722363629</v>
       </c>
       <c r="J7">
-        <v>0.2825936856616098</v>
+        <v>0.240575722363629</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.5758016813488</v>
+        <v>8.374233</v>
       </c>
       <c r="N7">
-        <v>7.5758016813488</v>
+        <v>25.122699</v>
       </c>
       <c r="O7">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194523</v>
       </c>
       <c r="P7">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194524</v>
       </c>
       <c r="Q7">
-        <v>75.95839982895249</v>
+        <v>85.53884024843501</v>
       </c>
       <c r="R7">
-        <v>75.95839982895249</v>
+        <v>769.8495622359151</v>
       </c>
       <c r="S7">
-        <v>0.06478299965394807</v>
+        <v>0.0578124067400097</v>
       </c>
       <c r="T7">
-        <v>0.06478299965394807</v>
+        <v>0.05781240674000972</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.30022577684406</v>
+        <v>8.840180333333334</v>
       </c>
       <c r="H8">
-        <v>8.30022577684406</v>
+        <v>26.520541</v>
       </c>
       <c r="I8">
-        <v>0.2339403577117089</v>
+        <v>0.2082066542980933</v>
       </c>
       <c r="J8">
-        <v>0.2339403577117089</v>
+        <v>0.2082066542980934</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.4707290571619</v>
+        <v>18.444833</v>
       </c>
       <c r="N8">
-        <v>17.4707290571619</v>
+        <v>55.33449900000001</v>
       </c>
       <c r="O8">
-        <v>0.5286655744491404</v>
+        <v>0.529296397589589</v>
       </c>
       <c r="P8">
-        <v>0.5286655744491404</v>
+        <v>0.5292963975895891</v>
       </c>
       <c r="Q8">
-        <v>145.0109956605137</v>
+        <v>163.0556499382177</v>
       </c>
       <c r="R8">
-        <v>145.0109956605137</v>
+        <v>1467.500849443959</v>
       </c>
       <c r="S8">
-        <v>0.123676213596498</v>
+        <v>0.1102030320741617</v>
       </c>
       <c r="T8">
-        <v>0.123676213596498</v>
+        <v>0.1102030320741618</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.30022577684406</v>
+        <v>8.840180333333334</v>
       </c>
       <c r="H9">
-        <v>8.30022577684406</v>
+        <v>26.520541</v>
       </c>
       <c r="I9">
-        <v>0.2339403577117089</v>
+        <v>0.2082066542980933</v>
       </c>
       <c r="J9">
-        <v>0.2339403577117089</v>
+        <v>0.2082066542980934</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.00031381036327</v>
+        <v>8.028767999999999</v>
       </c>
       <c r="N9">
-        <v>8.00031381036327</v>
+        <v>24.086304</v>
       </c>
       <c r="O9">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="P9">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="Q9">
-        <v>66.40441091161874</v>
+        <v>70.97575697449601</v>
       </c>
       <c r="R9">
-        <v>66.40441091161874</v>
+        <v>638.7818127704639</v>
       </c>
       <c r="S9">
-        <v>0.05663464394715048</v>
+        <v>0.04796977979795226</v>
       </c>
       <c r="T9">
-        <v>0.05663464394715048</v>
+        <v>0.04796977979795227</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.30022577684406</v>
+        <v>8.840180333333334</v>
       </c>
       <c r="H10">
-        <v>8.30022577684406</v>
+        <v>26.520541</v>
       </c>
       <c r="I10">
-        <v>0.2339403577117089</v>
+        <v>0.2082066542980933</v>
       </c>
       <c r="J10">
-        <v>0.2339403577117089</v>
+        <v>0.2082066542980934</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.5758016813488</v>
+        <v>8.374233</v>
       </c>
       <c r="N10">
-        <v>7.5758016813488</v>
+        <v>25.122699</v>
       </c>
       <c r="O10">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194523</v>
       </c>
       <c r="P10">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194524</v>
       </c>
       <c r="Q10">
-        <v>62.88086439578988</v>
+        <v>74.02972987335102</v>
       </c>
       <c r="R10">
-        <v>62.88086439578988</v>
+        <v>666.267568860159</v>
       </c>
       <c r="S10">
-        <v>0.05362950016806044</v>
+        <v>0.05003384242597933</v>
       </c>
       <c r="T10">
-        <v>0.05362950016806044</v>
+        <v>0.05003384242597934</v>
       </c>
     </row>
   </sheetData>
